--- a/src/AUDUSD/AUDUSD_KNN_Train/AUDUSD KNN_train_output.xlsx
+++ b/src/AUDUSD/AUDUSD_KNN_Train/AUDUSD KNN_train_output.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,193 +430,6 @@
         <v>0.0336906928265637</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.003264865723153498</v>
-      </c>
-      <c r="C5">
-        <v>0.03277857233001687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.00316915993117959</v>
-      </c>
-      <c r="C6">
-        <v>0.03203933580803891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.003130070124311628</v>
-      </c>
-      <c r="C7">
-        <v>0.03176938778637636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.003114044574013119</v>
-      </c>
-      <c r="C8">
-        <v>0.03160739911191483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.003104331310854963</v>
-      </c>
-      <c r="C9">
-        <v>0.03148587818959823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.003073406262607972</v>
-      </c>
-      <c r="C10">
-        <v>0.03126596622994775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.003060939591850633</v>
-      </c>
-      <c r="C11">
-        <v>0.03116999663391207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.003054715590338741</v>
-      </c>
-      <c r="C12">
-        <v>0.0311042385500902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.003054259419377451</v>
-      </c>
-      <c r="C13">
-        <v>0.03106347710508433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.003055720899152711</v>
-      </c>
-      <c r="C14">
-        <v>0.03104790059989401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.003058464480382721</v>
-      </c>
-      <c r="C15">
-        <v>0.03102958092880616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.00305724210840509</v>
-      </c>
-      <c r="C16">
-        <v>0.03098895242182442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.00305685715177537</v>
-      </c>
-      <c r="C17">
-        <v>0.03096574122650797</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.003061565552991089</v>
-      </c>
-      <c r="C18">
-        <v>0.03096615738976771</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.003066202264427067</v>
-      </c>
-      <c r="C19">
-        <v>0.03096859926528225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0.003072173858063962</v>
-      </c>
-      <c r="C20">
-        <v>0.03098073012866075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.003074789880757189</v>
-      </c>
-      <c r="C21">
-        <v>0.03097242546347787</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/AUDUSD/AUDUSD_KNN_Train/AUDUSD KNN_train_output.xlsx
+++ b/src/AUDUSD/AUDUSD_KNN_Train/AUDUSD KNN_train_output.xlsx
@@ -402,10 +402,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.004294367195318593</v>
+        <v>0.1690553009301551</v>
       </c>
       <c r="C2">
-        <v>0.04175917894526347</v>
+        <v>0.3963608643167555</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.003574319641168348</v>
+        <v>0.09011863496874604</v>
       </c>
       <c r="C3">
-        <v>0.03505570810526235</v>
+        <v>0.2639599071154472</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.003405422654598841</v>
+        <v>0.06124958411707003</v>
       </c>
       <c r="C4">
-        <v>0.0336906928265637</v>
+        <v>0.2029142364224212</v>
       </c>
     </row>
   </sheetData>
